--- a/src/renderer/templates/FormatoImportacaoAluno.xlsx
+++ b/src/renderer/templates/FormatoImportacaoAluno.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desenvolvimento\Javascript\sete\src\renderer\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5480C7C-B5BF-416F-9DF9-08AD1BF3139C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="11640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>Nome</t>
   </si>
@@ -121,12 +127,15 @@
   </si>
   <si>
     <t>Nível</t>
+  </si>
+  <si>
+    <t>Preto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -169,6 +178,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -176,7 +188,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -214,9 +226,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,9 +261,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -284,9 +313,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -459,24 +505,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -548,37 +594,37 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Plan2!$A$1:$A$3</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C100</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Plan2!$B$1:$B$5</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D100</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Plan2!$C$1:$C$2</xm:f>
           </x14:formula1>
           <xm:sqref>H2:H100</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Plan2!$D$1:$D$4</xm:f>
           </x14:formula1>
           <xm:sqref>F2:F100</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>Plan2!$F$1:$F$5</xm:f>
           </x14:formula1>
           <xm:sqref>I2:I100</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
             <xm:f>Plan2!$E$1:$E$4</xm:f>
           </x14:formula1>
@@ -591,18 +637,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -677,6 +723,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
       <c r="F5" t="s">
         <v>33</v>
       </c>
@@ -687,7 +736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/src/renderer/templates/FormatoImportacaoAluno.xlsx
+++ b/src/renderer/templates/FormatoImportacaoAluno.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="44">
   <si>
     <t xml:space="preserve">Nome</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t xml:space="preserve">Dona Etelvina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dilan</t>
   </si>
   <si>
     <t xml:space="preserve">Amarelo</t>
@@ -262,10 +268,10 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19"/>
@@ -470,13 +476,37 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>36346</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="2"/>
@@ -1267,10 +1297,10 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="J7 B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.11"/>
@@ -1282,10 +1312,10 @@
         <v>11</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>14</v>
@@ -1294,7 +1324,7 @@
         <v>18</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1311,7 +1341,7 @@
         <v>25</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>17</v>
@@ -1319,13 +1349,13 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>27</v>
@@ -1339,21 +1369,21 @@
         <v>23</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1375,10 +1405,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="J7 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
